--- a/Configuration Status Accounting Report ver 1.0.xlsx
+++ b/Configuration Status Accounting Report ver 1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Swetha Krishnamurthi\Desktop\Review Impt Doc\06272019\CM\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9733E4BD-D061-4151-B5AA-46CCB607BDBF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F84F01-1C84-4AF1-B7B7-5D2D3E0062BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5115" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version History" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>Change Details</t>
-  </si>
-  <si>
-    <t>Configuration Status Accounting Report v 1.0</t>
   </si>
   <si>
     <t>Sl No</t>
@@ -130,9 +127,6 @@
     </r>
   </si>
   <si>
-    <t>Swetha Krishnamurthi</t>
-  </si>
-  <si>
     <t>Nagoor Inaganti</t>
   </si>
   <si>
@@ -148,13 +142,58 @@
     <t>Storage Migration Service</t>
   </si>
   <si>
-    <t>Pavan Kumar Pentela</t>
-  </si>
-  <si>
-    <t>Padma Nela</t>
-  </si>
-  <si>
     <t>Ver 1.1</t>
+  </si>
+  <si>
+    <t>Pradeep Nedunuri</t>
+  </si>
+  <si>
+    <t>Requirement Development Plan</t>
+  </si>
+  <si>
+    <t>Updated with the change in requirements</t>
+  </si>
+  <si>
+    <t>Eswara Prasad Gatamaneni</t>
+  </si>
+  <si>
+    <t>Build Plan</t>
+  </si>
+  <si>
+    <t>Test Plan</t>
+  </si>
+  <si>
+    <t>Test case</t>
+  </si>
+  <si>
+    <t>Release Note</t>
+  </si>
+  <si>
+    <t>Configuration Management Plan</t>
+  </si>
+  <si>
+    <t>Training Plan</t>
+  </si>
+  <si>
+    <t>Project Plan</t>
+  </si>
+  <si>
+    <t>Software Requirements Specification</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eswara Prasad </t>
+  </si>
+  <si>
+    <t>Pradeep</t>
+  </si>
+  <si>
+    <t>Configuration Status Accounting Report v 1.1</t>
   </si>
 </sst>
 </file>
@@ -704,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,7 +1521,7 @@
   <sheetData>
     <row r="1" spans="3:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="E1" s="2" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.25">
@@ -1502,13 +1541,13 @@
         <v>4</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>5</v>
@@ -1519,28 +1558,28 @@
         <v>1</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E8" s="12">
         <v>43402</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H8" s="12">
         <v>43403</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J8" s="12">
         <v>43403</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.25">
@@ -1644,7 +1683,7 @@
     </row>
     <row r="20" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
@@ -1657,7 +1696,7 @@
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
@@ -1667,7 +1706,7 @@
     </row>
     <row r="23" spans="2:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -1706,20 +1745,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="111" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="111" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" style="5" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" style="5" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" style="5" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.5703125" style="5" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
     <col min="9" max="9" width="27.7109375" style="5" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5703125" style="5" customWidth="1"/>
@@ -1732,15 +1771,15 @@
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" x14ac:dyDescent="0.3">
       <c r="D1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1754,10 +1793,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1807,7 +1846,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
@@ -1816,37 +1855,37 @@
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="F10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="G10" s="14" t="s">
         <v>16</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>17</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>2</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J10" s="14" t="s">
         <v>2</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1854,7 +1893,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="9">
         <v>2019</v>
@@ -1866,163 +1905,383 @@
         <v>43402</v>
       </c>
       <c r="F11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="H11" s="16">
         <v>43378</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J11" s="16">
         <v>43403</v>
       </c>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>2</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E12" s="17">
+        <v>43383</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="16">
+        <v>43379</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="16">
+        <v>43404</v>
+      </c>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>3</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E13" s="17">
+        <v>43384</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="16">
+        <v>43380</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="16">
+        <v>43405</v>
+      </c>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>4</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E14" s="17">
+        <v>43385</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="16">
+        <v>43381</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="16">
+        <v>43406</v>
+      </c>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>5</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E15" s="17">
+        <v>43386</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="16">
+        <v>43382</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="16">
+        <v>43407</v>
+      </c>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>6</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E16" s="17">
+        <v>43387</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="16">
+        <v>43383</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="16">
+        <v>43408</v>
+      </c>
       <c r="K16" s="8"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>7</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E17" s="17">
+        <v>43388</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="16">
+        <v>43384</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="16">
+        <v>43409</v>
+      </c>
       <c r="K17" s="8"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>8</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E18" s="17">
+        <v>43389</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="16">
+        <v>43385</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="16">
+        <v>43410</v>
+      </c>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>9</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E19" s="17">
+        <v>43390</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="16">
+        <v>43386</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="16">
+        <v>43411</v>
+      </c>
       <c r="K19" s="8"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>10</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E20" s="17">
+        <v>43391</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="16">
+        <v>43387</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="16">
+        <v>43412</v>
+      </c>
       <c r="K20" s="8"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>11</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="D21" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E21" s="17">
+        <v>43392</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="16">
+        <v>43388</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="16">
+        <v>43413</v>
+      </c>
       <c r="K21" s="8"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
+    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>12</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E22" s="17">
+        <v>43393</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="16">
+        <v>43389</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="16">
+        <v>43414</v>
+      </c>
       <c r="K22" s="8"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
